--- a/pruebas-unitarias/Serguros-de-viaje-mundial/Pruebas-Unitarias.xlsx
+++ b/pruebas-unitarias/Serguros-de-viaje-mundial/Pruebas-Unitarias.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive\Documentos\Cristian\Prueba-tecnica\prueba-tecnica\pruebas-unitarias\seguro-para-viaje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive\Documentos\Cristian\Prueba-tecnica\prueba-tecnica\pruebas-unitarias\Serguros-de-viaje-mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80EC4BA-8153-4921-BA85-6C0639D8AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B29D81-AA9C-4678-BAB7-D93BA64E61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PU-1" sheetId="1" r:id="rId1"/>
     <sheet name="PU-2" sheetId="3" r:id="rId2"/>
     <sheet name="PU-3" sheetId="4" r:id="rId3"/>
-    <sheet name="PU-4" sheetId="5" r:id="rId4"/>
-    <sheet name="Parametrización" sheetId="2" r:id="rId5"/>
+    <sheet name="Parametrización" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t>PRUEBAS UNITARIAS</t>
   </si>
@@ -107,9 +106,6 @@
     <t>Detino</t>
   </si>
   <si>
-    <t>Retorno</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -117,15 +113,6 @@
   </si>
   <si>
     <t>Apellido</t>
-  </si>
-  <si>
-    <t>WhatsApp</t>
-  </si>
-  <si>
-    <t>Cod. Descuento</t>
-  </si>
-  <si>
-    <t>Edades</t>
   </si>
   <si>
     <t>Pasajero</t>
@@ -140,31 +127,10 @@
     <t>La consola debe estar sin defectos, de peticiones, img, etc. Excepto que sea de una extensión externa.</t>
   </si>
   <si>
-    <t>#"!#"#</t>
-  </si>
-  <si>
     <t>crisdavid323@gmail.com</t>
   </si>
   <si>
-    <t>#"$#"%</t>
-  </si>
-  <si>
-    <t>$#%"#%$</t>
-  </si>
-  <si>
-    <t>1513dw51d3a1d3aw1d3aw1da3w1dwa31daw3d1aw1d</t>
-  </si>
-  <si>
-    <t>13153513515</t>
-  </si>
-  <si>
     <t>2 Pasajero</t>
-  </si>
-  <si>
-    <t>El detino que selecciono no existe</t>
-  </si>
-  <si>
-    <t>De validar el destino y notificar si el destino no existe.</t>
   </si>
   <si>
     <t>Formato de email</t>
@@ -176,9 +142,6 @@
     <t>Los caracteres son alfabéticos</t>
   </si>
   <si>
-    <t>Los caracteres son numéricos</t>
-  </si>
-  <si>
     <t>Permitir solo formato de email</t>
   </si>
   <si>
@@ -188,77 +151,20 @@
     <t>No debe permitir caracteres especiales.</t>
   </si>
   <si>
-    <t>Permitir solo formato numéricos</t>
-  </si>
-  <si>
-    <t>Se debe validar si el código existe.</t>
-  </si>
-  <si>
-    <t>Si el código no existe no debe redireccionar a ningun componente.</t>
-  </si>
-  <si>
     <t>Lista desplegable</t>
-  </si>
-  <si>
-    <t>Muestra una lista desplegable</t>
-  </si>
-  <si>
-    <t>13, 36</t>
-  </si>
-  <si>
-    <t>El campo del nombre no debe permitir ingresar caracteres especiales y no dejar redireccionar, con esta validación cuidamos y mantenemos limpia la data.
-https://trello.com/c/cPo70miU/12-spv-pu-cotizador</t>
-  </si>
-  <si>
-    <t>No se esta validado este campo y se deja redireccionar al siguiente componente
-https://trello.com/c/kaRoI5UR/3-spv-pu-cotizador</t>
-  </si>
-  <si>
-    <t>¡Cotiza ahora tu asistencia en viaje!</t>
   </si>
   <si>
     <t>Consola de inicio</t>
   </si>
   <si>
-    <t>Cotizar</t>
-  </si>
-  <si>
-    <t>Origen</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Colombia</t>
-  </si>
-  <si>
-    <t>Neiva</t>
-  </si>
-  <si>
-    <t>Debe ser una autocomplete</t>
-  </si>
-  <si>
-    <t>Buscar el país origen del usuario</t>
-  </si>
-  <si>
-    <t>Buscar la ciudad apartir del país origen</t>
   </si>
   <si>
     <t>En consola se esta generando varios fallos al iniciar el componente: 
 https://trello.com/c/fCIF83eD/4-spv-pu-cotizador</t>
   </si>
   <si>
-    <t>En consola se esta generando varios fallos al iniciar el componente: 
-https://trello.com/c/o6QoChXR/2-spv-pu-home</t>
-  </si>
-  <si>
-    <t>Documento de identidad</t>
-  </si>
-  <si>
     <t>Fecha de nacimiento</t>
-  </si>
-  <si>
-    <t>Edad</t>
   </si>
   <si>
     <t>Cristhian</t>
@@ -270,41 +176,76 @@
     <t>Debe de permitir seleccionar la fecha ingresada</t>
   </si>
   <si>
-    <t xml:space="preserve">Debe poder actualizarse cuando se ingresa la fecha de nacimiento.	</t>
-  </si>
-  <si>
-    <t>Cotizar Confirmar datos</t>
-  </si>
-  <si>
-    <t>No se  esta permitiendo seleccionar otras fechas de nacimiento.
-https://trello.com/c/6Hfx0sXV/5-spv-pu-cotizador-confirmar-datos</t>
-  </si>
-  <si>
-    <t>No se esta actualizando al momento de seleccionar la fecha
-https://trello.com/c/zJB062Kw/6-spv-pu-cotizador-confirmar-datos</t>
-  </si>
-  <si>
-    <t>En consola se esta generando varios fallos al iniciar el componente.
-https://trello.com/c/kAEIDl2r/8-spv-pu-cotizador-metodo-de-pago</t>
-  </si>
-  <si>
-    <t>SVP-Home</t>
-  </si>
-  <si>
-    <t>SVP-Cotizador</t>
-  </si>
-  <si>
     <t>SPV-PU-Cotizador-confirmar-datos</t>
   </si>
   <si>
-    <t>SPV-PU-Cotizador-metodo-de-pago</t>
+    <t>Latinoamerica. Caribe y Canada (No USA)</t>
+  </si>
+  <si>
+    <t>Regreso</t>
+  </si>
+  <si>
+    <t>Agrega la cantidad de pasajeros</t>
+  </si>
+  <si>
+    <t>Se puede agrega la contidad de pasajeros</t>
+  </si>
+  <si>
+    <t>Se debe mostrar una lista con los destinos que tenga el sistema</t>
+  </si>
+  <si>
+    <t>SVM-Home</t>
+  </si>
+  <si>
+    <t>Cotizador</t>
+  </si>
+  <si>
+    <t>En consola se esta generando varios fallos al iniciar el componente: 
+https://trello.com/c/maAPqubt/12-svm-home</t>
+  </si>
+  <si>
+    <t>Editar datos de cotización</t>
+  </si>
+  <si>
+    <t>SVM-Editar-datos-cotización</t>
+  </si>
+  <si>
+    <t>Solicitud de compra</t>
+  </si>
+  <si>
+    <t>Numero de personas</t>
+  </si>
+  <si>
+    <t>Pasaporte/DNI</t>
+  </si>
+  <si>
+    <t>País de origen</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Se debe mostrar una lista con los registros que tenga el sistema</t>
+  </si>
+  <si>
+    <t>Deben ser requeidos y sus caracteres son numericos</t>
+  </si>
+  <si>
+    <t>Debe mostrar una alerta de la validación del campo</t>
+  </si>
+  <si>
+    <t>Requerido y caracteres numéricos</t>
+  </si>
+  <si>
+    <t>Se muestran en consola fallos y hasta console.log. En el sistema.
+https://trello.com/c/5ysD9zwh/1-svm-solicitud-compra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -361,19 +302,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -407,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -542,12 +470,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -580,73 +523,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,37 +559,55 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,16 +619,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,10 +895,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA988"/>
+  <dimension ref="A1:AA981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -948,18 +909,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -979,16 +940,16 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1008,18 +969,18 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1045,22 +1006,22 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
+      <c r="A4" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="36" t="s">
-        <v>81</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1080,18 +1041,18 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1111,18 +1072,18 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>58</v>
+      <c r="A6" s="37" t="s">
+        <v>53</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1145,22 +1106,22 @@
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1186,22 +1147,22 @@
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20" t="s">
-        <v>34</v>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>41</v>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
-        <v>42</v>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17" t="s">
+        <v>51</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1227,22 +1188,22 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27">
+      <c r="C9" s="15"/>
+      <c r="D9" s="39">
         <v>44894</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
-        <v>44</v>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
-        <v>48</v>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1268,22 +1229,22 @@
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>23</v>
+      <c r="B10" s="14" t="s">
+        <v>48</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="27">
+      <c r="C10" s="15"/>
+      <c r="D10" s="39">
         <v>45258</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15" t="s">
-        <v>44</v>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15" t="s">
-        <v>48</v>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1309,22 +1270,22 @@
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>24</v>
+      <c r="B11" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1346,28 +1307,28 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>25</v>
+      <c r="B12" s="14" t="s">
+        <v>26</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="20" t="s">
-        <v>36</v>
+      <c r="C12" s="15"/>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1387,29 +1348,19 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>6</v>
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1428,29 +1379,19 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="42" t="s">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1469,28 +1410,28 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>28</v>
+      <c r="E15" s="27"/>
+      <c r="F15" s="38" t="s">
+        <v>9</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="20" t="s">
-        <v>38</v>
+      <c r="G15" s="27"/>
+      <c r="H15" s="36" t="s">
+        <v>10</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="8" t="s">
-        <v>19</v>
+      <c r="I15" s="27"/>
+      <c r="J15" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1510,28 +1451,28 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>30</v>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
+      <c r="C16" s="15"/>
+      <c r="D16" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
-        <v>53</v>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15" t="s">
-        <v>54</v>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1551,29 +1492,19 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>10</v>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1592,19 +1523,21 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>12</v>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>6</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1623,19 +1556,21 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>59</v>
+    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -1654,29 +1589,19 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>6</v>
+    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1695,29 +1620,21 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>11</v>
+    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>31</v>
+      <c r="B21" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1736,19 +1653,21 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>13</v>
+    <row r="22" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>6</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -1767,21 +1686,17 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -1800,21 +1715,17 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>5</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -1833,21 +1744,17 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>6</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1866,21 +1773,17 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>8</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1900,18 +1803,16 @@
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -1930,21 +1831,17 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -1963,21 +1860,17 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>11</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -29604,211 +29497,41 @@
       <c r="Z981" s="5"/>
       <c r="AA981" s="5"/>
     </row>
-    <row r="982" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A982" s="5"/>
-      <c r="B982" s="5"/>
-      <c r="C982" s="5"/>
-      <c r="D982" s="5"/>
-      <c r="E982" s="5"/>
-      <c r="F982" s="5"/>
-      <c r="G982" s="5"/>
-      <c r="H982" s="5"/>
-      <c r="I982" s="5"/>
-      <c r="J982" s="5"/>
-      <c r="K982" s="5"/>
-      <c r="L982" s="5"/>
-      <c r="M982" s="5"/>
-      <c r="N982" s="5"/>
-      <c r="O982" s="5"/>
-      <c r="P982" s="5"/>
-      <c r="Q982" s="5"/>
-      <c r="R982" s="5"/>
-      <c r="S982" s="5"/>
-      <c r="T982" s="5"/>
-      <c r="U982" s="5"/>
-      <c r="V982" s="5"/>
-      <c r="W982" s="5"/>
-      <c r="X982" s="5"/>
-      <c r="Y982" s="5"/>
-      <c r="Z982" s="5"/>
-      <c r="AA982" s="5"/>
-    </row>
-    <row r="983" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A983" s="5"/>
-      <c r="B983" s="5"/>
-      <c r="C983" s="5"/>
-      <c r="D983" s="5"/>
-      <c r="E983" s="5"/>
-      <c r="F983" s="5"/>
-      <c r="G983" s="5"/>
-      <c r="H983" s="5"/>
-      <c r="I983" s="5"/>
-      <c r="J983" s="5"/>
-      <c r="K983" s="5"/>
-      <c r="L983" s="5"/>
-      <c r="M983" s="5"/>
-      <c r="N983" s="5"/>
-      <c r="O983" s="5"/>
-      <c r="P983" s="5"/>
-      <c r="Q983" s="5"/>
-      <c r="R983" s="5"/>
-      <c r="S983" s="5"/>
-      <c r="T983" s="5"/>
-      <c r="U983" s="5"/>
-      <c r="V983" s="5"/>
-      <c r="W983" s="5"/>
-      <c r="X983" s="5"/>
-      <c r="Y983" s="5"/>
-      <c r="Z983" s="5"/>
-      <c r="AA983" s="5"/>
-    </row>
-    <row r="984" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A984" s="5"/>
-      <c r="B984" s="5"/>
-      <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
-      <c r="E984" s="5"/>
-      <c r="F984" s="5"/>
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
-      <c r="I984" s="5"/>
-      <c r="J984" s="5"/>
-      <c r="K984" s="5"/>
-      <c r="L984" s="5"/>
-      <c r="M984" s="5"/>
-      <c r="N984" s="5"/>
-      <c r="O984" s="5"/>
-      <c r="P984" s="5"/>
-      <c r="Q984" s="5"/>
-      <c r="R984" s="5"/>
-      <c r="S984" s="5"/>
-      <c r="T984" s="5"/>
-      <c r="U984" s="5"/>
-      <c r="V984" s="5"/>
-      <c r="W984" s="5"/>
-      <c r="X984" s="5"/>
-      <c r="Y984" s="5"/>
-      <c r="Z984" s="5"/>
-      <c r="AA984" s="5"/>
-    </row>
-    <row r="985" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A985" s="5"/>
-      <c r="B985" s="5"/>
-      <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
-      <c r="E985" s="5"/>
-      <c r="F985" s="5"/>
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
-      <c r="I985" s="5"/>
-      <c r="J985" s="5"/>
-      <c r="K985" s="5"/>
-      <c r="L985" s="5"/>
-      <c r="M985" s="5"/>
-      <c r="N985" s="5"/>
-      <c r="O985" s="5"/>
-      <c r="P985" s="5"/>
-      <c r="Q985" s="5"/>
-      <c r="R985" s="5"/>
-      <c r="S985" s="5"/>
-      <c r="T985" s="5"/>
-      <c r="U985" s="5"/>
-      <c r="V985" s="5"/>
-      <c r="W985" s="5"/>
-      <c r="X985" s="5"/>
-      <c r="Y985" s="5"/>
-      <c r="Z985" s="5"/>
-      <c r="AA985" s="5"/>
-    </row>
-    <row r="986" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A986" s="5"/>
-      <c r="B986" s="5"/>
-      <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
-      <c r="E986" s="5"/>
-      <c r="F986" s="5"/>
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
-      <c r="I986" s="5"/>
-      <c r="J986" s="5"/>
-      <c r="K986" s="5"/>
-      <c r="L986" s="5"/>
-      <c r="M986" s="5"/>
-      <c r="N986" s="5"/>
-      <c r="O986" s="5"/>
-      <c r="P986" s="5"/>
-      <c r="Q986" s="5"/>
-      <c r="R986" s="5"/>
-      <c r="S986" s="5"/>
-      <c r="T986" s="5"/>
-      <c r="U986" s="5"/>
-      <c r="V986" s="5"/>
-      <c r="W986" s="5"/>
-      <c r="X986" s="5"/>
-      <c r="Y986" s="5"/>
-      <c r="Z986" s="5"/>
-      <c r="AA986" s="5"/>
-    </row>
-    <row r="987" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A987" s="5"/>
-      <c r="B987" s="5"/>
-      <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
-      <c r="E987" s="5"/>
-      <c r="F987" s="5"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
-      <c r="I987" s="5"/>
-      <c r="J987" s="5"/>
-      <c r="K987" s="5"/>
-      <c r="L987" s="5"/>
-      <c r="M987" s="5"/>
-      <c r="N987" s="5"/>
-      <c r="O987" s="5"/>
-      <c r="P987" s="5"/>
-      <c r="Q987" s="5"/>
-      <c r="R987" s="5"/>
-      <c r="S987" s="5"/>
-      <c r="T987" s="5"/>
-      <c r="U987" s="5"/>
-      <c r="V987" s="5"/>
-      <c r="W987" s="5"/>
-      <c r="X987" s="5"/>
-      <c r="Y987" s="5"/>
-      <c r="Z987" s="5"/>
-      <c r="AA987" s="5"/>
-    </row>
-    <row r="988" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A988" s="5"/>
-      <c r="B988" s="5"/>
-      <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
-      <c r="E988" s="5"/>
-      <c r="F988" s="5"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
-      <c r="I988" s="5"/>
-      <c r="J988" s="5"/>
-      <c r="K988" s="5"/>
-      <c r="L988" s="5"/>
-      <c r="M988" s="5"/>
-      <c r="N988" s="5"/>
-      <c r="O988" s="5"/>
-      <c r="P988" s="5"/>
-      <c r="Q988" s="5"/>
-      <c r="R988" s="5"/>
-      <c r="S988" s="5"/>
-      <c r="T988" s="5"/>
-      <c r="U988" s="5"/>
-      <c r="V988" s="5"/>
-      <c r="W988" s="5"/>
-      <c r="X988" s="5"/>
-      <c r="Y988" s="5"/>
-      <c r="Z988" s="5"/>
-      <c r="AA988" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="49">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -29817,39 +29540,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
@@ -29858,28 +29548,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" xr:uid="{2FAB1E64-8EFF-461B-B0DA-14C52B188844}"/>
@@ -29892,7 +29560,7 @@
           <x14:formula1>
             <xm:f>Parametrización!$B$2:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J21 J8:J17</xm:sqref>
+          <xm:sqref>J16 J8:J12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -29908,53 +29576,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D0F1B-2F18-4BD5-9949-7BC8E929AF2C}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
@@ -29962,72 +29630,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
+    <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="36" t="s">
-        <v>82</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="19" t="s">
+        <v>56</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>60</v>
+      <c r="A6" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="12" t="s">
         <v>11</v>
       </c>
@@ -30036,22 +29704,22 @@
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>61</v>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20" t="s">
-        <v>63</v>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21" t="s">
+        <v>47</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>65</v>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
-        <v>66</v>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17" t="s">
+        <v>51</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
@@ -30060,196 +29728,245 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>62</v>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27" t="s">
-        <v>64</v>
+      <c r="C9" s="15"/>
+      <c r="D9" s="39">
+        <v>44894</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
-        <v>65</v>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
-        <v>67</v>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="39">
+        <v>45258</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>59</v>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>39</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="21" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="12" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>31</v>
+      <c r="B14" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
-        <v>32</v>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15" t="s">
-        <v>33</v>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="8" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>68</v>
+      <c r="B20" s="22" t="s">
+        <v>41</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="41">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -30266,27 +29983,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -30302,7 +29998,7 @@
           <x14:formula1>
             <xm:f>Parametrización!$B$2:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J13 J8:J9</xm:sqref>
+          <xm:sqref>J14 J8:J10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30312,53 +30008,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D0A854-183E-471A-9DFE-0DCD7ED6706B}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
@@ -30367,95 +30063,95 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
+      <c r="A4" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="36" t="s">
-        <v>83</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="19" t="s">
+        <v>46</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>77</v>
+      <c r="A6" s="37" t="s">
+        <v>57</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>25</v>
+      <c r="B8" s="14" t="s">
+        <v>58</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20" t="s">
-        <v>73</v>
+      <c r="C8" s="15"/>
+      <c r="D8" s="21">
+        <v>1</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15" t="s">
-        <v>45</v>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15" t="s">
-        <v>49</v>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17" t="s">
+        <v>62</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
@@ -30464,22 +30160,22 @@
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
+      <c r="B9" s="14" t="s">
+        <v>24</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="27" t="s">
-        <v>74</v>
+      <c r="C9" s="15"/>
+      <c r="D9" s="21" t="s">
+        <v>43</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15" t="s">
-        <v>45</v>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15" t="s">
-        <v>49</v>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
+        <v>37</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="8" t="s">
         <v>18</v>
       </c>
@@ -30488,284 +30184,361 @@
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>24</v>
+      <c r="B10" s="14" t="s">
+        <v>25</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="51" t="s">
-        <v>35</v>
+      <c r="C10" s="15"/>
+      <c r="D10" s="39" t="s">
+        <v>44</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15" t="s">
-        <v>47</v>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17" t="s">
+        <v>37</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>70</v>
+      <c r="B11" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46">
-        <v>1075255642</v>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
+        <v>20</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="15" t="s">
-        <v>46</v>
+      <c r="E11" s="48"/>
+      <c r="F11" s="17" t="s">
+        <v>63</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15" t="s">
-        <v>50</v>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17" t="s">
+        <v>64</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>71</v>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="49">
         <v>33287</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="15" t="s">
-        <v>44</v>
+      <c r="E12" s="48"/>
+      <c r="F12" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15" t="s">
-        <v>75</v>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17" t="s">
+        <v>45</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>72</v>
+      <c r="B13" s="50" t="s">
+        <v>60</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46">
-        <v>36</v>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52" t="s">
+        <v>40</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="15" t="s">
-        <v>46</v>
+      <c r="E13" s="53"/>
+      <c r="F13" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15" t="s">
-        <v>76</v>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17" t="s">
+        <v>62</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="8" t="s">
-        <v>19</v>
+      <c r="I13" s="15"/>
+      <c r="J13" s="54" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61">
+        <v>3212861012</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>59</v>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>39</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="21" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="12" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>11</v>
+    <row r="19" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>31</v>
+      <c r="B19" s="14" t="s">
+        <v>27</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15" t="s">
-        <v>32</v>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15" t="s">
-        <v>33</v>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="8" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>5</v>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>78</v>
+      <c r="B22" s="22" t="s">
+        <v>20</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="41" t="s">
+      <c r="B24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>9</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>20</v>
+      <c r="B25" s="22" t="s">
+        <v>66</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="61">
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -30782,47 +30555,9 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{DACD4B45-BFA0-47C4-8539-0CE9924D7DF9}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{DACD4B45-BFA0-47C4-8539-0CE9924D7DF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -30833,7 +30568,7 @@
           <x14:formula1>
             <xm:f>Parametrización!$B$2:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>J17 J8:J13</xm:sqref>
+          <xm:sqref>J19 J8:J15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{82FF37A1-0E4C-486B-83CE-F763A18E91CE}">
           <x14:formula1>
@@ -30848,382 +30583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361915D2-3E39-4F50-BAC8-36038B6828D5}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="58"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="B17:J17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{4DC1DD51-0FBE-42A6-8553-2B05039EE2D9}">
-          <x14:formula1>
-            <xm:f>Parametrización!$B$1:$C$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{DFF389D2-0F0B-42A6-BACD-1DCBFF98082C}">
-          <x14:formula1>
-            <xm:f>Parametrización!$B$2:$E$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12 J8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
